--- a/data-raw/robinson.peanut.xlsx
+++ b/data-raw/robinson.peanut.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\x\rpack\agridat\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\drop\rpack\agridat\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA18FE2B-B5FE-4B7D-B742-92BF93C0569C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="0" windowWidth="22020" windowHeight="9672" activeTab="1"/>
+    <workbookView xWindow="4380" yWindow="3340" windowWidth="7590" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,12 +25,8 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -59,9 +56,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -80,9 +76,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -120,7 +116,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -226,7 +222,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -368,23 +364,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="P1" sqref="P1:P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>650</v>
       </c>
@@ -434,7 +430,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>725</v>
       </c>
@@ -484,7 +480,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>640</v>
       </c>
@@ -534,7 +530,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>665</v>
       </c>
@@ -584,7 +580,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>645</v>
       </c>
@@ -634,7 +630,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>675</v>
       </c>
@@ -684,7 +680,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>710</v>
       </c>
@@ -734,7 +730,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>620</v>
       </c>
@@ -784,7 +780,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>490</v>
       </c>
@@ -834,7 +830,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>700</v>
       </c>
@@ -884,7 +880,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>500</v>
       </c>
@@ -934,7 +930,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>585</v>
       </c>
@@ -984,7 +980,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>700</v>
       </c>
@@ -1034,7 +1030,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>895</v>
       </c>
@@ -1084,7 +1080,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>850</v>
       </c>
@@ -1134,7 +1130,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>750</v>
       </c>
@@ -1184,7 +1180,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>620</v>
       </c>
@@ -1234,7 +1230,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>665</v>
       </c>
@@ -1284,7 +1280,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>665</v>
       </c>
@@ -1334,7 +1330,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>875</v>
       </c>
@@ -1384,7 +1380,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>565</v>
       </c>
@@ -1434,7 +1430,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>925</v>
       </c>
@@ -1484,7 +1480,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1030</v>
       </c>
@@ -1534,7 +1530,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>615</v>
       </c>
@@ -1584,7 +1580,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>680</v>
       </c>
@@ -1634,7 +1630,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>780</v>
       </c>
@@ -1684,7 +1680,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>810</v>
       </c>
@@ -1734,7 +1730,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>870</v>
       </c>
@@ -1784,7 +1780,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>950</v>
       </c>
@@ -1834,7 +1830,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>785</v>
       </c>
@@ -1884,7 +1880,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>980</v>
       </c>
@@ -1934,7 +1930,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>840</v>
       </c>
@@ -1984,7 +1980,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>950</v>
       </c>
@@ -2034,7 +2030,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>690</v>
       </c>
@@ -2084,7 +2080,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>740</v>
       </c>
@@ -2134,7 +2130,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>750</v>
       </c>
@@ -2190,16 +2186,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1150</v>
       </c>
@@ -2249,7 +2245,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1060</v>
       </c>
@@ -2299,7 +2295,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>960</v>
       </c>
@@ -2349,7 +2345,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>820</v>
       </c>
@@ -2399,7 +2395,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>890</v>
       </c>
@@ -2449,7 +2445,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>770</v>
       </c>
@@ -2499,7 +2495,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>800</v>
       </c>
@@ -2549,7 +2545,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>770</v>
       </c>
@@ -2599,7 +2595,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>730</v>
       </c>
@@ -2649,7 +2645,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>760</v>
       </c>
@@ -2699,7 +2695,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>870</v>
       </c>
@@ -2749,7 +2745,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1130</v>
       </c>
@@ -2799,7 +2795,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>780</v>
       </c>
@@ -2849,7 +2845,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>630</v>
       </c>
@@ -2899,7 +2895,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>820</v>
       </c>
@@ -2949,7 +2945,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>720</v>
       </c>
@@ -2999,7 +2995,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>590</v>
       </c>
@@ -3049,7 +3045,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>790</v>
       </c>
@@ -3099,7 +3095,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>590</v>
       </c>
@@ -3149,7 +3145,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>740</v>
       </c>
@@ -3199,7 +3195,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>880</v>
       </c>
@@ -3249,7 +3245,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>660</v>
       </c>
@@ -3299,7 +3295,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>720</v>
       </c>
@@ -3349,7 +3345,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>500</v>
       </c>
@@ -3399,7 +3395,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>750</v>
       </c>
@@ -3449,7 +3445,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>490</v>
       </c>
@@ -3499,7 +3495,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>720</v>
       </c>
@@ -3549,7 +3545,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>750</v>
       </c>
@@ -3599,7 +3595,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>740</v>
       </c>
@@ -3649,7 +3645,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>600</v>
       </c>
@@ -3662,7 +3658,7 @@
       <c r="D30">
         <v>590</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30">
         <v>830</v>
       </c>
       <c r="F30">
@@ -3699,7 +3695,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>530</v>
       </c>
@@ -3749,7 +3745,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>460</v>
       </c>
@@ -3799,7 +3795,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>370</v>
       </c>
@@ -3849,7 +3845,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>440</v>
       </c>
@@ -3899,7 +3895,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>700</v>
       </c>
@@ -3949,7 +3945,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>550</v>
       </c>
